--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uceerjp\Desktop\PhD\Year 2\DeepLearning-on-ALS-MI-Data\Graphs\Subject-Independent Graphical Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uceerjp\Desktop\PhD\Year 2\DeepLearning-on-ALS-MI-Data\Graphs\Subject-Independent Graphical Models\Subject-Independent-Graphical-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3654071-7F7E-4334-A42C-8F50B35D0E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560520FD-C4FB-4808-9028-41A3C6D81F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B91B28C-69A4-4355-A9E8-6298FFB0B7ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B91B28C-69A4-4355-A9E8-6298FFB0B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
   <si>
     <t>LOSO</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>CrossEntropyLoss</t>
-  </si>
-  <si>
     <t>Subject Left Out</t>
   </si>
   <si>
@@ -70,18 +67,6 @@
     <t>CEL</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>2L GAT + kNN, N=100</t>
-  </si>
-  <si>
-    <t>2L GAT + SVM</t>
-  </si>
-  <si>
-    <t>2L GAT + RF</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -91,105 +76,15 @@
     <t>STD</t>
   </si>
   <si>
-    <t>2L GAT + Grid Search SVM</t>
-  </si>
-  <si>
     <t>PLVGAT</t>
   </si>
   <si>
-    <t>PLVGAT + SVM GridSearch</t>
-  </si>
-  <si>
-    <t>PLVGAT+ kNN GridSearch</t>
-  </si>
-  <si>
     <t>* Do not use poly in SVM to reduce computation cost</t>
   </si>
   <si>
-    <t>PLVGAT + SVM Basic GridSearch</t>
-  </si>
-  <si>
     <t>** Messed up and didn’t fix the seeds for all libraries. Redo for reproducibility…</t>
   </si>
   <si>
-    <t>Summary of best accuracies for each test subject:</t>
-  </si>
-  <si>
-    <t>Subject 1: 76.63% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 2: 76.76% with {'kernel': 'linear', 'C': 1, 'gamma': 'scale'}</t>
-  </si>
-  <si>
-    <t>Subject 3: 76.03% with {'kernel': 'rbf', 'C': 10, 'gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>Subject 4: 74.32% with {'kernel': 'linear', 'C': 0.1, 'gamma': 'scale'}</t>
-  </si>
-  <si>
-    <t>Subject 5: 70.53% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 6: 79.10% with {'kernel': 'rbf', 'C': 1, 'gamma': 'scale'}</t>
-  </si>
-  <si>
-    <t>Subject 7: 73.57% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>Subject 8: 71.82% with {'kernel': 'linear', 'C': 0.1, 'gamma': 'scale'}</t>
-  </si>
-  <si>
-    <t>Subject 9: 74.04% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>Subject 10: 68.96% with {'kernel': 'rbf', 'C': 10, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 11: 64.78% with {'kernel': 'linear', 'C': 0.1, 'gamma': 'scale'}</t>
-  </si>
-  <si>
-    <t>Subject 12: 78.17% with {'kernel': 'rbf', 'C': 10, 'gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>Subject 13: 71.78% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>Subject 14: 72.03% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 15: 85.41% with {'kernel': 'rbf', 'C': 10, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 16: 94.86% with {'kernel': 'rbf', 'C': 10, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 17: 78.30% with {'kernel': 'rbf', 'C': 10, 'gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>Subject 18: 81.98% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>Subject 19: 77.83% with {'kernel': 'rbf', 'C': 10, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 20: 74.23% with {'kernel': 'linear', 'C': 1, 'gamma': 'scale'}</t>
-  </si>
-  <si>
-    <t>Subject 21: 73.03% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 22: 79.17% with {'kernel': 'linear', 'C': 0.1, 'gamma': 'scale'}</t>
-  </si>
-  <si>
-    <t>Subject 23: 83.54% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.01}</t>
-  </si>
-  <si>
-    <t>Subject 24: 78.49% with {'kernel': 'rbf', 'C': 1, 'gamma': 0.001}</t>
-  </si>
-  <si>
-    <t>Subject 25: 94.37% with {'kernel': 'rbf', 'C': 0.1, 'gamma': 0.001}</t>
-  </si>
-  <si>
     <t>Literature</t>
   </si>
   <si>
@@ -407,13 +302,133 @@
   </si>
   <si>
     <t>*Has a calibration set so automatically worse. We use 20% of the Target set for calibration to align with original works</t>
+  </si>
+  <si>
+    <t>1D CNN</t>
+  </si>
+  <si>
+    <t>* This was never going to work, how is this paper so highly cited?</t>
+  </si>
+  <si>
+    <t>MIN2NET</t>
+  </si>
+  <si>
+    <t>*This is such a complicated model….</t>
+  </si>
+  <si>
+    <t>GCNs-Net</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>GCNs-NET</t>
+  </si>
+  <si>
+    <t>https://github.com/SuperBruceJia/EEG-DL/tree/master</t>
+  </si>
+  <si>
+    <t>https://github.com/IoBT-VISTEC/MIN2Net/tree/main</t>
+  </si>
+  <si>
+    <t>https://github.com/ambitious-octopus/MI-EEG-1D-CNN/tree/master</t>
+  </si>
+  <si>
+    <t>https://github.com/DashanGao/Federated-Transfer-Learning-for-EEG/blob/master/SPDNet_utils.py</t>
+  </si>
+  <si>
+    <t>https://github.com/MiaoZhengQing/LMDA-Code/tree/main</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1053811923003609?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/EMBC44109.2020.9175344</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/article/10.1088/1741-2552/ac4430</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9658165</t>
+  </si>
+  <si>
+    <t>https://github.com/vlawhern/arl-eegmodels</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/article/10.1088/1741-2552/aace8c</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/hbm.23730</t>
+  </si>
+  <si>
+    <t>rPLVGAT (H=8)</t>
+  </si>
+  <si>
+    <t>95% Confidence Interval</t>
+  </si>
+  <si>
+    <t>60.80 - 72.61</t>
+  </si>
+  <si>
+    <t>58.17 - 68.09</t>
+  </si>
+  <si>
+    <t>54.21 - 59.79</t>
+  </si>
+  <si>
+    <t>56.12 - 65.91</t>
+  </si>
+  <si>
+    <t>51 - 56.28</t>
+  </si>
+  <si>
+    <t>53.53 - 55.87</t>
+  </si>
+  <si>
+    <t>58.24 - 71.09</t>
+  </si>
+  <si>
+    <t>59.19 - 71.08</t>
+  </si>
+  <si>
+    <t>All the others I compare too from the literature are SO computationally expensive. My model significantly outperforms both computation but marginally in accuracy</t>
+  </si>
+  <si>
+    <t>32-&gt;16-&gt;8</t>
+  </si>
+  <si>
+    <t>* DOES MMD LOSS IMPROVE ACCURACY?</t>
+  </si>
+  <si>
+    <t>*this is the best rival graphical model for sure, simple, easy to produce/compute and performs competitively</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>FRS score</t>
+  </si>
+  <si>
+    <t>TSSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank Sum </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +468,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -462,12 +485,68 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -476,7 +555,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -486,7 +565,66 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -823,750 +961,1157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBC8837-96B0-4BCD-9B60-72F0DC545C09}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="11"/>
+    <col min="5" max="10" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="11"/>
+    <col min="12" max="12" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="11" customWidth="1"/>
+    <col min="20" max="21" width="11.44140625" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11">
+        <v>32</v>
+      </c>
+      <c r="N2" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11">
+        <v>19</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="11">
+        <v>100</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="K10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.59433000000000002</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.5786</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0.5605</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1</v>
+      </c>
+      <c r="X11" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="27">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="27">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.6462</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="M12" s="11">
+        <v>2</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0.55589999999999995</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="W12" s="12">
+        <v>2</v>
+      </c>
+      <c r="X12" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="27">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="27">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="26">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.57594900000000004</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.5696</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="M13" s="11">
+        <v>5</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.60450000000000004</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.58630000000000004</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.54459999999999997</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="W13" s="12">
+        <v>5</v>
+      </c>
+      <c r="X13" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="27">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.59177199999999996</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.59810000000000008</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.59179999999999999</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="M14" s="11">
+        <v>9</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0.64560000000000006</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0.5756</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="T14" s="13">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="W14" s="12">
+        <v>9</v>
+      </c>
+      <c r="X14" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="27">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="26">
+        <v>7</v>
+      </c>
+      <c r="AE14" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>21</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.63836000000000004</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="M15" s="11">
+        <v>21</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0.6825</v>
+      </c>
+      <c r="S15" s="14">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0.68870000000000009</v>
+      </c>
+      <c r="W15" s="12">
+        <v>21</v>
+      </c>
+      <c r="X15" s="27">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="27">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="26">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="27">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="26">
+        <v>7</v>
+      </c>
+      <c r="AE15" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.63522000000000001</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.66979999999999995</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="M16" s="11">
+        <v>31</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0.63190000000000002</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="S16" s="14">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="T16" s="13">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="W16" s="12">
+        <v>31</v>
+      </c>
+      <c r="X16" s="27">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="26">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="26">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="27">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE16" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>34</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.60738000000000003</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.61739999999999995</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="M17" s="11">
+        <v>34</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0.72819999999999996</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0.70850000000000002</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="S17" s="14">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="T17" s="13">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0.7349</v>
+      </c>
+      <c r="W17" s="12">
+        <v>34</v>
+      </c>
+      <c r="X17" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="27">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="27">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="26">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="26">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="27">
+        <v>8</v>
+      </c>
+      <c r="AD17" s="26">
+        <v>6</v>
+      </c>
+      <c r="AE17" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>39</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.62751599999999996</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="M18" s="11">
+        <v>39</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0.69489999999999996</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0.56610000000000005</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="T18" s="13">
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="W18" s="12">
+        <v>39</v>
+      </c>
+      <c r="X18" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="27">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="27">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="26">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="26">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="26">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F19" s="13"/>
+      <c r="X19" s="28">
+        <f>SUM(X11:X18)</f>
+        <v>16</v>
+      </c>
+      <c r="Y19" s="28">
+        <f t="shared" ref="Y19:AE19" si="0">SUM(Y11:Y18)</f>
+        <v>24</v>
+      </c>
+      <c r="Z19" s="28">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA19" s="28">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AB19" s="28">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AC19" s="28">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AD19" s="28">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AE19" s="28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="E2">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <v>32</v>
-      </c>
-      <c r="J2">
-        <v>32</v>
-      </c>
-      <c r="P2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3">
-        <v>32</v>
-      </c>
-      <c r="J3">
-        <v>32</v>
-      </c>
-      <c r="P3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>100</v>
-      </c>
-      <c r="R7">
-        <v>100</v>
-      </c>
-      <c r="S7">
-        <v>100</v>
-      </c>
-      <c r="T7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" t="s">
-        <v>117</v>
-      </c>
-      <c r="T8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="S9" t="s">
-        <v>118</v>
-      </c>
-      <c r="T9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.59433000000000002</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.55349999999999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.5786</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.54720000000000002</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.51890000000000003</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.55349999999999999</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.58489999999999998</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.58810000000000007</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.58810000000000007</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0.55410000000000004</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0.51980000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.56140000000000001</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.6462</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.60529999999999995</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.60529999999999995</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.64910000000000001</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.5585</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.68710000000000004</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.77489999999999992</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.78359999999999996</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0.78359999999999996</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0.59209999999999996</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0.67920000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.57594900000000004</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.5696</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.55059999999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.56330000000000002</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.62659999999999993</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.58540000000000003</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.61709999999999998</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.63290000000000002</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.6581999999999999</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0.6581999999999999</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0.60450000000000004</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0.59160000000000001</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0.53049999999999997</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0.58630000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.59177199999999996</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.59810000000000008</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.59179999999999999</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.52529999999999999</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.59489999999999998</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.57279999999999998</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.66769999999999996</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.76580000000000004</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0.61409999999999998</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0.60129999999999995</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0.5756</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0.62649999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.63836000000000004</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.63519999999999999</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.63519999999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.66349999999999998</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.71379999999999999</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.67299999999999993</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.72959999999999992</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.78299999999999992</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.85530000000000006</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0.85530000000000006</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0.67520000000000002</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0.59550000000000003</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0.6825</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.63522000000000001</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.66979999999999995</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.66349999999999998</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.70129999999999992</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.69180000000000008</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.72009999999999996</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.7609999999999999</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.75159999999999993</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.75159999999999993</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0.72309999999999997</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0.69379999999999997</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0.63190000000000002</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0.63009999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.60738000000000003</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.61739999999999995</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.63090000000000002</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.69459999999999988</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.69129999999999991</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.81540000000000001</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.84560000000000002</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.84560000000000002</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0.70850000000000002</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0.53220000000000001</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0.54239999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.62751599999999996</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.67449999999999999</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.61070000000000002</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.68790000000000007</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.75840000000000007</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.75840000000000007</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.76849999999999996</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.85230000000000006</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.87250000000000005</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0.87250000000000005</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0.68810000000000004</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0.69489999999999996</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0.56610000000000005</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0.61439999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="B20" s="14">
         <f>AVERAGE(B11:B18)</f>
         <v>0.60399087500000004</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" ref="C20:H20" si="0">AVERAGE(C11:C18)</f>
+      <c r="C20" s="14">
+        <f t="shared" ref="C20:D20" si="1">AVERAGE(C11:C18)</f>
         <v>0.62093750000000003</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
+      <c r="D20" s="14">
+        <f t="shared" si="1"/>
         <v>0.61162500000000009</v>
       </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.61086249999999997</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.6530125</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.63323750000000001</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.67936250000000009</v>
-      </c>
-      <c r="I20" s="4">
-        <f>AVERAGE(I11:I18)</f>
-        <v>0.74627500000000002</v>
-      </c>
-      <c r="J20" s="5">
-        <f>AVERAGE(J11:J18)</f>
-        <v>0.76627500000000004</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5">
-        <f>AVERAGE(P11:P18)</f>
-        <v>0.76627500000000004</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="shared" ref="K20:Q21" si="1">AVERAGE(Q11:Q18)</f>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="15">
+        <f>AVERAGE(N11:N18)</f>
+        <v>0.66702499999999998</v>
+      </c>
+      <c r="O20" s="14">
+        <f>AVERAGE(O11:O18)</f>
         <v>0.65133750000000001</v>
       </c>
-      <c r="R20" s="9">
-        <f t="shared" ref="R20:S20" si="2">AVERAGE(R11:R18)</f>
+      <c r="P20" s="14">
+        <f t="shared" ref="P20:Q20" si="2">AVERAGE(P11:P18)</f>
         <v>0.63129999999999997</v>
       </c>
-      <c r="S20" s="9">
+      <c r="Q20" s="14">
         <f t="shared" si="2"/>
         <v>0.56998749999999998</v>
       </c>
-      <c r="T20" s="9">
-        <f t="shared" ref="T20" si="3">AVERAGE(T11:T18)</f>
+      <c r="R20" s="14">
+        <f t="shared" ref="R20:S20" si="3">AVERAGE(R11:R18)</f>
         <v>0.61014999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="S20" s="14">
+        <f t="shared" si="3"/>
+        <v>0.53641250000000007</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" ref="T20:U20" si="4">AVERAGE(T11:T18)</f>
+        <v>0.54697499999999999</v>
+      </c>
+      <c r="U20" s="14">
+        <f t="shared" si="4"/>
+        <v>0.64667499999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13">
         <f>_xlfn.STDEV.P(B11:B18)</f>
         <v>2.6373223814304063E-2</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:J21" si="4">_xlfn.STDEV.P(C11:C18)</f>
+      <c r="C21" s="13">
+        <f t="shared" ref="C21:D21" si="5">_xlfn.STDEV.P(C11:C18)</f>
         <v>4.2039384435907247E-2</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="4"/>
+      <c r="D21" s="13">
+        <f t="shared" si="5"/>
         <v>3.6638598158226524E-2</v>
       </c>
-      <c r="E21" s="3">
-        <f t="shared" si="4"/>
-        <v>5.6507387514819686E-2</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="4"/>
-        <v>7.006683305066716E-2</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="4"/>
-        <v>7.6107915775890475E-2</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="4"/>
-        <v>6.3428324459581922E-2</v>
-      </c>
-      <c r="I21" s="3">
-        <f>_xlfn.STDEV.P(I11:I18)</f>
-        <v>8.4912833982855346E-2</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="4"/>
-        <v>9.3223625626769099E-2</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6">
-        <f t="shared" ref="P21" si="5">_xlfn.STDEV.P(P11:P18)</f>
-        <v>9.3223625626769099E-2</v>
-      </c>
-      <c r="Q21" s="7">
-        <f t="shared" ref="Q21:R21" si="6">_xlfn.STDEV.P(Q11:Q18)</f>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="16">
+        <f>_xlfn.STDEV.P(N11:N18)</f>
+        <v>6.6061330405919036E-2</v>
+      </c>
+      <c r="O21" s="17">
+        <f t="shared" ref="O21:P21" si="6">_xlfn.STDEV.P(O11:O18)</f>
         <v>6.6490862859117747E-2</v>
       </c>
-      <c r="R21" s="7">
+      <c r="P21" s="17">
         <f t="shared" si="6"/>
         <v>5.5547704723057631E-2</v>
       </c>
-      <c r="S21" s="7">
-        <f t="shared" ref="S21:T21" si="7">_xlfn.STDEV.P(S11:S18)</f>
+      <c r="Q21" s="17">
+        <f t="shared" ref="Q21:R21" si="7">_xlfn.STDEV.P(Q11:Q18)</f>
         <v>3.1197613590625811E-2</v>
       </c>
-      <c r="T21" s="7">
+      <c r="R21" s="17">
         <f t="shared" si="7"/>
         <v>5.4781178337089453E-2</v>
       </c>
+      <c r="S21" s="17">
+        <f t="shared" ref="S21:T21" si="8">_xlfn.STDEV.P(S11:S18)</f>
+        <v>2.956524300170725E-2</v>
+      </c>
+      <c r="T21" s="17">
+        <f t="shared" si="8"/>
+        <v>1.3067110430389708E-2</v>
+      </c>
+      <c r="U21" s="17">
+        <f t="shared" ref="U21" si="9">_xlfn.STDEV.P(U11:U18)</f>
+        <v>7.1873478244761743E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="M24" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="N26" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="M27" s="11">
+        <v>1</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="M28" s="11">
+        <v>2</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="M29" s="11">
+        <v>3</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="M30" s="11">
+        <v>4</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="M31" s="11">
+        <v>5</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O31" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="M32" s="11">
+        <v>6</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="M33" s="11">
+        <v>7</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M36" s="25" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B11:J18">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="K11:L17 L18 O11:O18">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1577,8 +2122,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:O17 B18:J18 L18:O18 P11:Q18">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="K11:L17 L18 O11:P18">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1589,8 +2134,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:O17 B18:J18 L18:O18 P11:R18">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="K11:L18 O11:Q18">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1601,8 +2146,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:S18">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="K11:L18 O11:R18">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1613,8 +2158,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P18">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="K11:L18 O11:S18">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1625,8 +2170,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:T18">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K11:L18 O11:T18">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1637,29 +2182,93 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K11:L18 O11:U18">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:U18">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11:S15 O16:R16 K11:L18 O17:S18">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:T18 O14:S14 K11:L18 O11:T13">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="O31" r:id="rId1" xr:uid="{90C9FF12-A5B0-450B-8CFB-D75D18F86921}"/>
+    <hyperlink ref="O30" r:id="rId2" xr:uid="{A3FAF0D2-F743-4D32-B552-0FF4D825B9CF}"/>
+    <hyperlink ref="O29" r:id="rId3" xr:uid="{48119CCF-06EB-431B-A67A-14E9DABDCA03}"/>
+    <hyperlink ref="O28" r:id="rId4" xr:uid="{0982EAA6-F8AF-4AA7-9F51-E9DD457C1705}"/>
+    <hyperlink ref="O27" r:id="rId5" xr:uid="{1FDDA1D7-EAF8-43EC-9DF5-3375E9965024}"/>
+    <hyperlink ref="N27" r:id="rId6" xr:uid="{4C06B330-5A34-458B-A58F-61AA7146361E}"/>
+    <hyperlink ref="N28" r:id="rId7" xr:uid="{0F6AC67F-F6E8-4A53-AE29-BC176FB00192}"/>
+    <hyperlink ref="N29" r:id="rId8" xr:uid="{22D0ED96-137B-4E14-8C31-838235AA3BA6}"/>
+    <hyperlink ref="N30" r:id="rId9" xr:uid="{73150888-D59F-443E-A3EE-E8C3402CCED8}"/>
+    <hyperlink ref="N31" r:id="rId10" xr:uid="{48DBB565-0F46-43C3-B2A2-C409D6254286}"/>
+    <hyperlink ref="O32" r:id="rId11" xr:uid="{1B495004-DF46-4CFC-A2D6-8D5FA74478C7}"/>
+    <hyperlink ref="O33" r:id="rId12" xr:uid="{FEED66AE-4EE7-4E82-B6A7-21A123532382}"/>
+    <hyperlink ref="N32" r:id="rId13" xr:uid="{EC8B95F4-A1F0-4A0B-A9DD-4E76003D60CD}"/>
+    <hyperlink ref="N33" r:id="rId14" xr:uid="{CF667885-2634-4741-A557-942E76117AF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8B8AFA-41C9-4389-91C6-DFF97EE3B7D1}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1667,10 +2276,10 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1678,187 +2287,170 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.76629999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.76670000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.76029999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.74319999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.70530000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.79100000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="3">
-        <v>0.73570000000000002</v>
-      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.71819999999999995</v>
-      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.74039999999999995</v>
-      </c>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.68959999999999999</v>
-      </c>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" s="3">
-        <v>0.64780000000000004</v>
-      </c>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" s="3">
-        <v>0.78169999999999995</v>
-      </c>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.71779999999999999</v>
-      </c>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
-      <c r="B23" s="3">
-        <v>0.72030000000000005</v>
-      </c>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.85409999999999997</v>
-      </c>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.9486</v>
-      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
-      <c r="B26" s="3">
-        <v>0.78300000000000003</v>
-      </c>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>18</v>
       </c>
-      <c r="B27" s="3">
-        <v>0.81979999999999997</v>
-      </c>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>19</v>
       </c>
-      <c r="B28" s="7">
-        <v>0.77829999999999999</v>
-      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1872,9 +2464,7 @@
       <c r="A29">
         <v>20</v>
       </c>
-      <c r="B29" s="7">
-        <v>0.74229999999999996</v>
-      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1888,9 +2478,7 @@
       <c r="A30">
         <v>21</v>
       </c>
-      <c r="B30" s="7">
-        <v>0.73029999999999995</v>
-      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1904,9 +2492,7 @@
       <c r="A31">
         <v>22</v>
       </c>
-      <c r="B31" s="7">
-        <v>0.79169999999999996</v>
-      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1920,9 +2506,7 @@
       <c r="A32">
         <v>23</v>
       </c>
-      <c r="B32" s="7">
-        <v>0.83540000000000003</v>
-      </c>
+      <c r="B32" s="7"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1936,9 +2520,7 @@
       <c r="A33">
         <v>24</v>
       </c>
-      <c r="B33" s="7">
-        <v>0.78490000000000004</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1952,9 +2534,7 @@
       <c r="A34">
         <v>25</v>
       </c>
-      <c r="B34" s="7">
-        <v>0.94369999999999998</v>
-      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1969,11 +2549,11 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="5">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5" t="e">
         <f>AVERAGE(B10:B34)</f>
-        <v>0.7718560000000001</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1986,11 +2566,11 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="6">
+        <v>11</v>
+      </c>
+      <c r="B37" s="6" t="e">
         <f>_xlfn.STDEV.P(B10:B34)</f>
-        <v>6.8122366840854848E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2000,136 +2580,6 @@
       <c r="H37" s="3"/>
       <c r="I37" s="6"/>
       <c r="J37" s="3"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C28:J34">
@@ -2153,12 +2603,12 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="6" max="6" width="42.109375" customWidth="1"/>
@@ -2169,313 +2619,313 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>2025</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>2024</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>2025</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>2023</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>2024</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
